--- a/wyniki/NONAI_statistics.xlsx
+++ b/wyniki/NONAI_statistics.xlsx
@@ -537,61 +537,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -601,61 +601,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.096774193548387</v>
+        <v>3.058823529411764</v>
       </c>
       <c r="C3" t="n">
-        <v>3.354838709677419</v>
+        <v>3.352941176470588</v>
       </c>
       <c r="D3" t="n">
-        <v>2.838709677419355</v>
+        <v>2.794117647058823</v>
       </c>
       <c r="E3" t="n">
-        <v>2.806451612903226</v>
+        <v>2.764705882352941</v>
       </c>
       <c r="F3" t="n">
-        <v>2.709677419354839</v>
+        <v>2.794117647058823</v>
       </c>
       <c r="G3" t="n">
-        <v>3.225806451612903</v>
+        <v>3.294117647058823</v>
       </c>
       <c r="H3" t="n">
-        <v>2.387096774193548</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I3" t="n">
-        <v>2.67741935483871</v>
+        <v>2.617647058823529</v>
       </c>
       <c r="J3" t="n">
-        <v>2.774193548387097</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="K3" t="n">
-        <v>3.258064516129032</v>
+        <v>3.264705882352941</v>
       </c>
       <c r="L3" t="n">
-        <v>3.483870967741935</v>
+        <v>3.352941176470588</v>
       </c>
       <c r="M3" t="n">
-        <v>3.774193548387097</v>
+        <v>3.794117647058823</v>
       </c>
       <c r="N3" t="n">
-        <v>3.193548387096774</v>
+        <v>3.205882352941177</v>
       </c>
       <c r="O3" t="n">
-        <v>3.451612903225806</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="P3" t="n">
-        <v>4.032258064516129</v>
+        <v>4.088235294117647</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.354838709677419</v>
+        <v>3.411764705882353</v>
       </c>
       <c r="R3" t="n">
-        <v>2.967741935483871</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="S3" t="n">
-        <v>3.193548387096774</v>
+        <v>3.264705882352941</v>
       </c>
       <c r="T3" t="n">
-        <v>2.67741935483871</v>
+        <v>2.676470588235294</v>
       </c>
     </row>
     <row r="4">
@@ -665,61 +665,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.350428048427051</v>
+        <v>1.347077115755897</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305076935069965</v>
+        <v>1.29993829553272</v>
       </c>
       <c r="D4" t="n">
-        <v>1.593670275256635</v>
+        <v>1.628894619890878</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4926342449667</v>
+        <v>1.538571228778491</v>
       </c>
       <c r="F4" t="n">
-        <v>1.442071389520338</v>
+        <v>1.430816926321757</v>
       </c>
       <c r="G4" t="n">
-        <v>1.521176680936063</v>
+        <v>1.487919266397041</v>
       </c>
       <c r="H4" t="n">
-        <v>1.406589714044545</v>
+        <v>1.411690431795447</v>
       </c>
       <c r="I4" t="n">
-        <v>1.557500064723242</v>
+        <v>1.51786744105915</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49910367485274</v>
+        <v>1.467411899471122</v>
       </c>
       <c r="K4" t="n">
-        <v>1.436842416214199</v>
+        <v>1.377499348939224</v>
       </c>
       <c r="L4" t="n">
-        <v>1.434595593234913</v>
+        <v>1.495090003192804</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2030427373776</v>
+        <v>1.174976769975549</v>
       </c>
       <c r="N4" t="n">
-        <v>1.376453288678544</v>
+        <v>1.365803388057981</v>
       </c>
       <c r="O4" t="n">
-        <v>1.260653525687354</v>
+        <v>1.236693884801685</v>
       </c>
       <c r="P4" t="n">
-        <v>1.168585212061774</v>
+        <v>1.13798458366358</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.252953499982453</v>
+        <v>1.233807780786253</v>
       </c>
       <c r="R4" t="n">
-        <v>1.559569833164302</v>
+        <v>1.566129919052426</v>
       </c>
       <c r="S4" t="n">
-        <v>1.400460753673821</v>
+        <v>1.377499348939224</v>
       </c>
       <c r="T4" t="n">
-        <v>1.599731160209814</v>
+        <v>1.570959718930652</v>
       </c>
     </row>
     <row r="5">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -905,13 +905,13 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8">
@@ -936,19 +936,19 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>

--- a/wyniki/NONAI_statistics.xlsx
+++ b/wyniki/NONAI_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,16 +519,6 @@
           <t>I play longer than I meant to</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>I really get into the game</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>I feel like I just can't stop playing</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -587,12 +577,6 @@
       <c r="R2" t="n">
         <v>34</v>
       </c>
-      <c r="S2" t="n">
-        <v>34</v>
-      </c>
-      <c r="T2" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -651,12 +635,6 @@
       <c r="R3" t="n">
         <v>2.823529411764706</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.264705882352941</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.676470588235294</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -715,12 +693,6 @@
       <c r="R4" t="n">
         <v>1.566129919052426</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.377499348939224</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.570959718930652</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -779,12 +751,6 @@
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -843,12 +809,6 @@
       <c r="R6" t="n">
         <v>1.25</v>
       </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -907,12 +867,6 @@
       <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -971,12 +925,6 @@
       <c r="R8" t="n">
         <v>4</v>
       </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1033,12 +981,6 @@
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" t="n">
         <v>5</v>
       </c>
     </row>
